--- a/data/pca/factorExposure/factorExposure_2015-01-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01453895843173137</v>
+        <v>0.01088119813981471</v>
       </c>
       <c r="C2">
-        <v>-0.03956322475182945</v>
+        <v>0.05569421174035505</v>
       </c>
       <c r="D2">
-        <v>0.1094267700251204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.04053569561525924</v>
+      </c>
+      <c r="E2">
+        <v>-0.1018249649340068</v>
+      </c>
+      <c r="F2">
+        <v>0.1255008412017778</v>
+      </c>
+      <c r="G2">
+        <v>0.09695254796606144</v>
+      </c>
+      <c r="H2">
+        <v>-0.03403995991742489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03759363582033909</v>
+        <v>0.02004139873568999</v>
       </c>
       <c r="C4">
-        <v>-0.102836307567568</v>
+        <v>0.130040056738215</v>
       </c>
       <c r="D4">
-        <v>0.06535897412853262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0209135850599822</v>
+      </c>
+      <c r="E4">
+        <v>-0.08665266939751612</v>
+      </c>
+      <c r="F4">
+        <v>0.1108830322244457</v>
+      </c>
+      <c r="G4">
+        <v>-0.05161246665388956</v>
+      </c>
+      <c r="H4">
+        <v>-0.04449955313263101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0280168402088468</v>
+        <v>0.03434691338973706</v>
       </c>
       <c r="C6">
-        <v>-0.03430371775069655</v>
+        <v>0.04927569067140224</v>
       </c>
       <c r="D6">
-        <v>0.08120494676255084</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01954329733930421</v>
+      </c>
+      <c r="E6">
+        <v>-0.1155063443085294</v>
+      </c>
+      <c r="F6">
+        <v>0.07700383969014928</v>
+      </c>
+      <c r="G6">
+        <v>-0.008820571362563064</v>
+      </c>
+      <c r="H6">
+        <v>0.04066093497974842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.004958953730275285</v>
+        <v>0.006774814172347545</v>
       </c>
       <c r="C7">
-        <v>-0.03816068626686726</v>
+        <v>0.05241916224026352</v>
       </c>
       <c r="D7">
-        <v>0.06708970762321352</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.007524417006642279</v>
+      </c>
+      <c r="E7">
+        <v>-0.09099705788705484</v>
+      </c>
+      <c r="F7">
+        <v>0.02392451450544328</v>
+      </c>
+      <c r="G7">
+        <v>-0.01611104830160479</v>
+      </c>
+      <c r="H7">
+        <v>-0.008882418632750995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0007504293178460074</v>
+        <v>-0.004902898385919769</v>
       </c>
       <c r="C8">
-        <v>-0.04230762962593316</v>
+        <v>0.05335661256977105</v>
       </c>
       <c r="D8">
-        <v>0.06064092434111623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.006568776433695417</v>
+      </c>
+      <c r="E8">
+        <v>-0.06362143036490414</v>
+      </c>
+      <c r="F8">
+        <v>0.0763013772921656</v>
+      </c>
+      <c r="G8">
+        <v>0.01967889652970703</v>
+      </c>
+      <c r="H8">
+        <v>-0.06857955213454946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02532404103268549</v>
+        <v>0.01290286482692504</v>
       </c>
       <c r="C9">
-        <v>-0.09066655300613365</v>
+        <v>0.1079624671922657</v>
       </c>
       <c r="D9">
-        <v>0.07449505052819443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.02137348847299321</v>
+      </c>
+      <c r="E9">
+        <v>-0.07823719198186226</v>
+      </c>
+      <c r="F9">
+        <v>0.08105974510751737</v>
+      </c>
+      <c r="G9">
+        <v>-0.02680821773223219</v>
+      </c>
+      <c r="H9">
+        <v>-0.0006804047490097589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2190706644034871</v>
+        <v>0.2430108258686328</v>
       </c>
       <c r="C10">
-        <v>0.1141055449305114</v>
+        <v>-0.08232077199176271</v>
       </c>
       <c r="D10">
-        <v>-0.04694535623582081</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001853727172084135</v>
+      </c>
+      <c r="E10">
+        <v>0.02769906863782884</v>
+      </c>
+      <c r="F10">
+        <v>0.02049969333713408</v>
+      </c>
+      <c r="G10">
+        <v>-0.01192761234292753</v>
+      </c>
+      <c r="H10">
+        <v>0.001378750191909541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006977113431192504</v>
+        <v>0.009870745519620297</v>
       </c>
       <c r="C11">
-        <v>-0.04329372929338478</v>
+        <v>0.06369338398569659</v>
       </c>
       <c r="D11">
-        <v>0.03956763156831258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.001054643054975454</v>
+      </c>
+      <c r="E11">
+        <v>-0.05456713611957104</v>
+      </c>
+      <c r="F11">
+        <v>0.009988134391629485</v>
+      </c>
+      <c r="G11">
+        <v>-0.01110722343961918</v>
+      </c>
+      <c r="H11">
+        <v>0.0006897189406876434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006529130959216009</v>
+        <v>0.01046565870759854</v>
       </c>
       <c r="C12">
-        <v>-0.04630586402544453</v>
+        <v>0.05425820451608029</v>
       </c>
       <c r="D12">
-        <v>0.0464455520266609</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.01045122403153143</v>
+      </c>
+      <c r="E12">
+        <v>-0.0499872059426011</v>
+      </c>
+      <c r="F12">
+        <v>0.01011142087555999</v>
+      </c>
+      <c r="G12">
+        <v>0.007584207811950915</v>
+      </c>
+      <c r="H12">
+        <v>0.02666132809610216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01281586810393205</v>
+        <v>0.003722344482435616</v>
       </c>
       <c r="C13">
-        <v>-0.04931088877514259</v>
+        <v>0.08349703704196297</v>
       </c>
       <c r="D13">
-        <v>0.1096194007207941</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05741060819697293</v>
+      </c>
+      <c r="E13">
+        <v>-0.1283110417407642</v>
+      </c>
+      <c r="F13">
+        <v>0.06162429417662879</v>
+      </c>
+      <c r="G13">
+        <v>0.07505488733877005</v>
+      </c>
+      <c r="H13">
+        <v>0.06163275695109747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01102323426435412</v>
+        <v>0.002290867911133401</v>
       </c>
       <c r="C14">
-        <v>-0.02087155677000035</v>
+        <v>0.04349337193412284</v>
       </c>
       <c r="D14">
-        <v>0.05622580140752925</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.001040684722757059</v>
+      </c>
+      <c r="E14">
+        <v>-0.1087029872518278</v>
+      </c>
+      <c r="F14">
+        <v>0.06064910322146452</v>
+      </c>
+      <c r="G14">
+        <v>0.02339205162975495</v>
+      </c>
+      <c r="H14">
+        <v>0.03929244551004362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002995945129014546</v>
+        <v>-0.004869632877349992</v>
       </c>
       <c r="C15">
-        <v>-0.01446838669071349</v>
+        <v>0.03913518401585237</v>
       </c>
       <c r="D15">
-        <v>0.04917399600357544</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01852284519107142</v>
+      </c>
+      <c r="E15">
+        <v>-0.06920723221441803</v>
+      </c>
+      <c r="F15">
+        <v>0.02779675870247799</v>
+      </c>
+      <c r="G15">
+        <v>0.005781235232639887</v>
+      </c>
+      <c r="H15">
+        <v>-0.0116231936826866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007844115278481154</v>
+        <v>0.009976398321422591</v>
       </c>
       <c r="C16">
-        <v>-0.04371130140402718</v>
+        <v>0.05650966414591315</v>
       </c>
       <c r="D16">
-        <v>0.04242311391722473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.005514524810492507</v>
+      </c>
+      <c r="E16">
+        <v>-0.05072910093967689</v>
+      </c>
+      <c r="F16">
+        <v>0.005922047648444978</v>
+      </c>
+      <c r="G16">
+        <v>-0.01696422814456741</v>
+      </c>
+      <c r="H16">
+        <v>0.01874981176622504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.004167463428181311</v>
+        <v>0.0008637834159837068</v>
       </c>
       <c r="C19">
-        <v>-0.02845486546263688</v>
+        <v>0.02099852699043092</v>
       </c>
       <c r="D19">
-        <v>0.04307158683236278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01229214738282998</v>
+      </c>
+      <c r="E19">
+        <v>-0.01027707804471635</v>
+      </c>
+      <c r="F19">
+        <v>0.002098622608363193</v>
+      </c>
+      <c r="G19">
+        <v>0.03429792856742025</v>
+      </c>
+      <c r="H19">
+        <v>-0.01193723039157549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001773899897906547</v>
+        <v>0.003387487207137756</v>
       </c>
       <c r="C20">
-        <v>-0.03738399474288193</v>
+        <v>0.05886712527825714</v>
       </c>
       <c r="D20">
-        <v>0.05005344992015267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02005764185139794</v>
+      </c>
+      <c r="E20">
+        <v>-0.07332454463332093</v>
+      </c>
+      <c r="F20">
+        <v>0.02728844748329342</v>
+      </c>
+      <c r="G20">
+        <v>-0.02689403781448536</v>
+      </c>
+      <c r="H20">
+        <v>0.007567284667251407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.004508864622587036</v>
+        <v>0.00313912119186799</v>
       </c>
       <c r="C21">
-        <v>-0.06010823781826548</v>
+        <v>0.07094136942671726</v>
       </c>
       <c r="D21">
-        <v>0.07528410437826501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0190114613088061</v>
+      </c>
+      <c r="E21">
+        <v>-0.08116853250747874</v>
+      </c>
+      <c r="F21">
+        <v>0.1024451898805712</v>
+      </c>
+      <c r="G21">
+        <v>0.1028346452540183</v>
+      </c>
+      <c r="H21">
+        <v>0.05054490706013055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001764775524297168</v>
+        <v>-0.01085562650164547</v>
       </c>
       <c r="C22">
-        <v>-0.07249564729082297</v>
+        <v>0.1019582876009068</v>
       </c>
       <c r="D22">
-        <v>0.1826518976821349</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1080484296532046</v>
+      </c>
+      <c r="E22">
+        <v>-0.1917066972840974</v>
+      </c>
+      <c r="F22">
+        <v>0.1968982744207396</v>
+      </c>
+      <c r="G22">
+        <v>0.02088238742340497</v>
+      </c>
+      <c r="H22">
+        <v>-0.2544362362242224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001923973966245962</v>
+        <v>-0.007829922170177923</v>
       </c>
       <c r="C23">
-        <v>-0.07356923397051225</v>
+        <v>0.1045103414954877</v>
       </c>
       <c r="D23">
-        <v>0.1817247871432848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.111522041602884</v>
+      </c>
+      <c r="E23">
+        <v>-0.1897404397132085</v>
+      </c>
+      <c r="F23">
+        <v>0.196510009263971</v>
+      </c>
+      <c r="G23">
+        <v>0.02165821472289085</v>
+      </c>
+      <c r="H23">
+        <v>-0.2446459808802902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.009614039707640732</v>
+        <v>0.01070837422849406</v>
       </c>
       <c r="C24">
-        <v>-0.06486254852776976</v>
+        <v>0.07325345912456373</v>
       </c>
       <c r="D24">
-        <v>0.05382813013165586</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.001483953042601999</v>
+      </c>
+      <c r="E24">
+        <v>-0.0595786072123324</v>
+      </c>
+      <c r="F24">
+        <v>0.01406025397887763</v>
+      </c>
+      <c r="G24">
+        <v>-0.0004136746022593674</v>
+      </c>
+      <c r="H24">
+        <v>0.004380222106214708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01033202498846929</v>
+        <v>0.01442120263092428</v>
       </c>
       <c r="C25">
-        <v>-0.05624123402357212</v>
+        <v>0.06703687733732944</v>
       </c>
       <c r="D25">
-        <v>0.04107741810587404</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.008590914808022385</v>
+      </c>
+      <c r="E25">
+        <v>-0.0455454295803795</v>
+      </c>
+      <c r="F25">
+        <v>0.01336391084378518</v>
+      </c>
+      <c r="G25">
+        <v>-0.01382539885204296</v>
+      </c>
+      <c r="H25">
+        <v>0.008402212465650634</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006570644471008504</v>
+        <v>0.01602825782122076</v>
       </c>
       <c r="C26">
-        <v>-0.02597994371880779</v>
+        <v>0.04476536824919706</v>
       </c>
       <c r="D26">
-        <v>0.04688372630854684</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01431651626892216</v>
+      </c>
+      <c r="E26">
+        <v>-0.07363890394915579</v>
+      </c>
+      <c r="F26">
+        <v>0.06147689230232652</v>
+      </c>
+      <c r="G26">
+        <v>0.0150953032852558</v>
+      </c>
+      <c r="H26">
+        <v>-0.004701173553905657</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3017338861842336</v>
+        <v>0.3132463606063252</v>
       </c>
       <c r="C28">
-        <v>0.1140652271478293</v>
+        <v>-0.09032569353432687</v>
       </c>
       <c r="D28">
-        <v>-0.01575737090424469</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01862602044934905</v>
+      </c>
+      <c r="E28">
+        <v>0.05132433435563248</v>
+      </c>
+      <c r="F28">
+        <v>0.06560422468960959</v>
+      </c>
+      <c r="G28">
+        <v>0.01747571202379104</v>
+      </c>
+      <c r="H28">
+        <v>-0.07028215651081163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0006542517413670893</v>
+        <v>0.002712417082841465</v>
       </c>
       <c r="C29">
-        <v>-0.02744660544941172</v>
+        <v>0.051058230949128</v>
       </c>
       <c r="D29">
-        <v>0.05925805355853527</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0001231696030413715</v>
+      </c>
+      <c r="E29">
+        <v>-0.1186534627748578</v>
+      </c>
+      <c r="F29">
+        <v>0.06396673164657546</v>
+      </c>
+      <c r="G29">
+        <v>0.020313804238804</v>
+      </c>
+      <c r="H29">
+        <v>0.05827404960045991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01790025939130323</v>
+        <v>0.01633546131302694</v>
       </c>
       <c r="C30">
-        <v>-0.09069668595829193</v>
+        <v>0.114262694799717</v>
       </c>
       <c r="D30">
-        <v>0.1307312972078875</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02204072713821574</v>
+      </c>
+      <c r="E30">
+        <v>-0.1436987274892128</v>
+      </c>
+      <c r="F30">
+        <v>0.05205609932513864</v>
+      </c>
+      <c r="G30">
+        <v>-0.02469902118795833</v>
+      </c>
+      <c r="H30">
+        <v>-0.008919003892683738</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01824591945761563</v>
+        <v>0.009371413980820312</v>
       </c>
       <c r="C31">
-        <v>-0.09855690987870262</v>
+        <v>0.1021160192243566</v>
       </c>
       <c r="D31">
-        <v>0.03911435976133921</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.004994473274945828</v>
+      </c>
+      <c r="E31">
+        <v>-0.02252023227719319</v>
+      </c>
+      <c r="F31">
+        <v>0.009911027335954068</v>
+      </c>
+      <c r="G31">
+        <v>0.01982838279750778</v>
+      </c>
+      <c r="H31">
+        <v>-0.02188840274704734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01269507144551022</v>
+        <v>0.01225564086688908</v>
       </c>
       <c r="C32">
-        <v>-0.05464346255000314</v>
+        <v>0.06391523676381548</v>
       </c>
       <c r="D32">
-        <v>0.07563712942253836</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05093851634119682</v>
+      </c>
+      <c r="E32">
+        <v>-0.0451096998504632</v>
+      </c>
+      <c r="F32">
+        <v>0.0843657355660222</v>
+      </c>
+      <c r="G32">
+        <v>0.03373348760700062</v>
+      </c>
+      <c r="H32">
+        <v>0.005208094351676044</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.001819149400326082</v>
+        <v>0.007432648270317401</v>
       </c>
       <c r="C33">
-        <v>-0.05711944613173493</v>
+        <v>0.08182381037742494</v>
       </c>
       <c r="D33">
-        <v>0.0766785752463449</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.02427429473265765</v>
+      </c>
+      <c r="E33">
+        <v>-0.09639704126902443</v>
+      </c>
+      <c r="F33">
+        <v>0.04749006862165526</v>
+      </c>
+      <c r="G33">
+        <v>0.001512902401516852</v>
+      </c>
+      <c r="H33">
+        <v>0.007308686782838959</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004380035172259727</v>
+        <v>0.00908815947403442</v>
       </c>
       <c r="C34">
-        <v>-0.05976853326806639</v>
+        <v>0.06155701447234808</v>
       </c>
       <c r="D34">
-        <v>0.05779539788935576</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0007024780042373264</v>
+      </c>
+      <c r="E34">
+        <v>-0.04838475594815948</v>
+      </c>
+      <c r="F34">
+        <v>-0.01544074318057628</v>
+      </c>
+      <c r="G34">
+        <v>0.01533356556403284</v>
+      </c>
+      <c r="H34">
+        <v>0.008806160701329491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0007686620330969045</v>
+        <v>0.004320521136890981</v>
       </c>
       <c r="C35">
-        <v>-0.0006150538544819086</v>
+        <v>0.02076073981890773</v>
       </c>
       <c r="D35">
-        <v>0.004055133954063015</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.007780727507170981</v>
+      </c>
+      <c r="E35">
+        <v>-0.03535208703507113</v>
+      </c>
+      <c r="F35">
+        <v>0.03244337051493956</v>
+      </c>
+      <c r="G35">
+        <v>-0.004050136173189171</v>
+      </c>
+      <c r="H35">
+        <v>0.02390832773455599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005067687811180461</v>
+        <v>0.01009430360743063</v>
       </c>
       <c r="C36">
-        <v>-0.02697827191035859</v>
+        <v>0.03807460261996614</v>
       </c>
       <c r="D36">
-        <v>0.03954624526640409</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.001940099893410531</v>
+      </c>
+      <c r="E36">
+        <v>-0.06330723971402606</v>
+      </c>
+      <c r="F36">
+        <v>0.05505461629001793</v>
+      </c>
+      <c r="G36">
+        <v>0.004345946529244127</v>
+      </c>
+      <c r="H36">
+        <v>0.001595195834878638</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00313747203638815</v>
+        <v>0.006189462118327275</v>
       </c>
       <c r="C38">
-        <v>-0.01946016057190618</v>
+        <v>0.04086574571651828</v>
       </c>
       <c r="D38">
-        <v>0.06846971063153355</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02289276459006993</v>
+      </c>
+      <c r="E38">
+        <v>-0.08036192147678228</v>
+      </c>
+      <c r="F38">
+        <v>0.02122163231536823</v>
+      </c>
+      <c r="G38">
+        <v>-0.007201666075464441</v>
+      </c>
+      <c r="H38">
+        <v>-0.05203558447910294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006343090437521573</v>
+        <v>0.007219460683779885</v>
       </c>
       <c r="C39">
-        <v>-0.06822301713692522</v>
+        <v>0.09855019078830859</v>
       </c>
       <c r="D39">
-        <v>0.09541576924160806</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.001791278949779992</v>
+      </c>
+      <c r="E39">
+        <v>-0.1194437729781355</v>
+      </c>
+      <c r="F39">
+        <v>0.01864711573486109</v>
+      </c>
+      <c r="G39">
+        <v>-0.004488602425650506</v>
+      </c>
+      <c r="H39">
+        <v>0.03020446440761974</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01191649985912599</v>
+        <v>0.01300272643221588</v>
       </c>
       <c r="C40">
-        <v>-0.03682263808634483</v>
+        <v>0.05268017010127711</v>
       </c>
       <c r="D40">
-        <v>0.1050401522544544</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02385991294426526</v>
+      </c>
+      <c r="E40">
+        <v>-0.1093937682503095</v>
+      </c>
+      <c r="F40">
+        <v>0.01000934867046501</v>
+      </c>
+      <c r="G40">
+        <v>0.06824132578425454</v>
+      </c>
+      <c r="H40">
+        <v>-0.01844400364321516</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.007919492176158185</v>
+        <v>0.01628725047761578</v>
       </c>
       <c r="C41">
-        <v>-0.02047548240223301</v>
+        <v>0.0367419094425577</v>
       </c>
       <c r="D41">
-        <v>0.01869419548173053</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.006943167828157851</v>
+      </c>
+      <c r="E41">
+        <v>-0.02378495329030208</v>
+      </c>
+      <c r="F41">
+        <v>0.008232942681699058</v>
+      </c>
+      <c r="G41">
+        <v>-0.0008446251016407203</v>
+      </c>
+      <c r="H41">
+        <v>-0.006223780585653569</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003671541974821346</v>
+        <v>0.007598416432719184</v>
       </c>
       <c r="C43">
-        <v>-0.01567368839969807</v>
+        <v>0.03019264206222119</v>
       </c>
       <c r="D43">
-        <v>0.03409521031486839</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.009082760440669127</v>
+      </c>
+      <c r="E43">
+        <v>-0.04094402838053994</v>
+      </c>
+      <c r="F43">
+        <v>0.01367283937866219</v>
+      </c>
+      <c r="G43">
+        <v>-0.007169860475609531</v>
+      </c>
+      <c r="H43">
+        <v>-0.01159432042716529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01344977198649278</v>
+        <v>0.007407207769762092</v>
       </c>
       <c r="C44">
-        <v>-0.04719592664323776</v>
+        <v>0.06801341720627467</v>
       </c>
       <c r="D44">
-        <v>0.07423615888560327</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.01244830804039883</v>
+      </c>
+      <c r="E44">
+        <v>-0.1080207045745363</v>
+      </c>
+      <c r="F44">
+        <v>0.06497191822463706</v>
+      </c>
+      <c r="G44">
+        <v>-0.003455132710647437</v>
+      </c>
+      <c r="H44">
+        <v>-0.0214107824709981</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.00161826319184048</v>
+        <v>-0.000817881618945236</v>
       </c>
       <c r="C46">
-        <v>-0.03634931099197033</v>
+        <v>0.0506088420435662</v>
       </c>
       <c r="D46">
-        <v>0.05925496577708744</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.007111509869779458</v>
+      </c>
+      <c r="E46">
+        <v>-0.08681940266287937</v>
+      </c>
+      <c r="F46">
+        <v>0.05475250190221702</v>
+      </c>
+      <c r="G46">
+        <v>0.01402426045196343</v>
+      </c>
+      <c r="H46">
+        <v>0.01203816474677716</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.04701953917098142</v>
+        <v>0.02820749539419918</v>
       </c>
       <c r="C47">
-        <v>-0.13308994639824</v>
+        <v>0.127674278116994</v>
       </c>
       <c r="D47">
-        <v>0.04513647241274987</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.002918904649402749</v>
+      </c>
+      <c r="E47">
+        <v>-0.0003485732228484272</v>
+      </c>
+      <c r="F47">
+        <v>-0.01371395179631854</v>
+      </c>
+      <c r="G47">
+        <v>0.007227594576276242</v>
+      </c>
+      <c r="H47">
+        <v>-0.02765314732463672</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004497718687700753</v>
+        <v>0.01224497582776304</v>
       </c>
       <c r="C48">
-        <v>-0.03051236754054579</v>
+        <v>0.04625293057335361</v>
       </c>
       <c r="D48">
-        <v>0.04135437945386387</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0006819680214665869</v>
+      </c>
+      <c r="E48">
+        <v>-0.06660731340792085</v>
+      </c>
+      <c r="F48">
+        <v>0.0716579344537813</v>
+      </c>
+      <c r="G48">
+        <v>0.006884467938334173</v>
+      </c>
+      <c r="H48">
+        <v>-0.008438778176140041</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002831143997576378</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.006262409906194304</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.002036833069374913</v>
+      </c>
+      <c r="E49">
+        <v>-0.002513778616858474</v>
+      </c>
+      <c r="F49">
+        <v>-0.01332520745529144</v>
+      </c>
+      <c r="G49">
+        <v>-0.004570624795394614</v>
+      </c>
+      <c r="H49">
+        <v>0.01596278145037475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.02293088465531553</v>
+        <v>0.01320130946024531</v>
       </c>
       <c r="C50">
-        <v>-0.07346615346569882</v>
+        <v>0.08456664054641232</v>
       </c>
       <c r="D50">
-        <v>0.05737175734477568</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.007537469350778063</v>
+      </c>
+      <c r="E50">
+        <v>-0.03792517151794628</v>
+      </c>
+      <c r="F50">
+        <v>0.00612932757544173</v>
+      </c>
+      <c r="G50">
+        <v>0.01116015777715212</v>
+      </c>
+      <c r="H50">
+        <v>-0.03374665694823058</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005441207659813097</v>
+        <v>-0.004667761841291764</v>
       </c>
       <c r="C51">
-        <v>-0.01085652177956299</v>
+        <v>0.0251488547062507</v>
       </c>
       <c r="D51">
-        <v>0.04895774034110326</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.007264174925366911</v>
+      </c>
+      <c r="E51">
+        <v>-0.06025708678267833</v>
+      </c>
+      <c r="F51">
+        <v>0.05599268485826236</v>
+      </c>
+      <c r="G51">
+        <v>0.02106430851257415</v>
+      </c>
+      <c r="H51">
+        <v>-0.002412631737713396</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07801645081688348</v>
+        <v>0.05746131850502739</v>
       </c>
       <c r="C53">
-        <v>-0.1609715005925554</v>
+        <v>0.1671695234215964</v>
       </c>
       <c r="D53">
-        <v>-0.01057927784902197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02580599751549826</v>
+      </c>
+      <c r="E53">
+        <v>0.05561893379054719</v>
+      </c>
+      <c r="F53">
+        <v>-0.004424848544721059</v>
+      </c>
+      <c r="G53">
+        <v>0.01841338462789763</v>
+      </c>
+      <c r="H53">
+        <v>-0.02347307169803196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003296021777008887</v>
+        <v>0.01066473099786644</v>
       </c>
       <c r="C54">
-        <v>-0.03619148685307308</v>
+        <v>0.05232339309971474</v>
       </c>
       <c r="D54">
-        <v>0.07900480025768072</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02757083653766041</v>
+      </c>
+      <c r="E54">
+        <v>-0.07550013889242876</v>
+      </c>
+      <c r="F54">
+        <v>0.03145167236699009</v>
+      </c>
+      <c r="G54">
+        <v>0.008729012432388624</v>
+      </c>
+      <c r="H54">
+        <v>-0.01554458900450829</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.06305814783974716</v>
+        <v>0.03910847174053284</v>
       </c>
       <c r="C55">
-        <v>-0.129363864044476</v>
+        <v>0.125805214422687</v>
       </c>
       <c r="D55">
-        <v>-0.003119343799971004</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04861597945689168</v>
+      </c>
+      <c r="E55">
+        <v>0.0459543099337831</v>
+      </c>
+      <c r="F55">
+        <v>-0.03143967049569607</v>
+      </c>
+      <c r="G55">
+        <v>0.04077835101050432</v>
+      </c>
+      <c r="H55">
+        <v>-0.03243912032027842</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.09338521019491451</v>
+        <v>0.05800884153789746</v>
       </c>
       <c r="C56">
-        <v>-0.187829240927943</v>
+        <v>0.1918318840949497</v>
       </c>
       <c r="D56">
-        <v>0.01721843729301866</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04056825646553221</v>
+      </c>
+      <c r="E56">
+        <v>0.07005222166426918</v>
+      </c>
+      <c r="F56">
+        <v>-0.04538431989322326</v>
+      </c>
+      <c r="G56">
+        <v>0.08285919090587243</v>
+      </c>
+      <c r="H56">
+        <v>-0.07504321488479275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01219344214323058</v>
+        <v>0.008828511968648265</v>
       </c>
       <c r="C58">
-        <v>-0.05136745892698786</v>
+        <v>0.1019291957541468</v>
       </c>
       <c r="D58">
-        <v>0.1612132727038721</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.1132814491629577</v>
+      </c>
+      <c r="E58">
+        <v>-0.18126906650818</v>
+      </c>
+      <c r="F58">
+        <v>0.2346066164354665</v>
+      </c>
+      <c r="G58">
+        <v>0.004872063275342392</v>
+      </c>
+      <c r="H58">
+        <v>-0.1441381970768363</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2265571920755058</v>
+        <v>0.2626190854014851</v>
       </c>
       <c r="C59">
-        <v>0.07469340874553701</v>
+        <v>-0.04605652161982633</v>
       </c>
       <c r="D59">
-        <v>0.04384092617338433</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03536557135836878</v>
+      </c>
+      <c r="E59">
+        <v>-0.01575305229268476</v>
+      </c>
+      <c r="F59">
+        <v>0.03733693165063758</v>
+      </c>
+      <c r="G59">
+        <v>0.03629161950631765</v>
+      </c>
+      <c r="H59">
+        <v>0.005332163938678981</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1445791139929379</v>
+        <v>0.1496339487449073</v>
       </c>
       <c r="C60">
-        <v>-0.1324126534262343</v>
+        <v>0.1600103765250423</v>
       </c>
       <c r="D60">
-        <v>0.1253734411122788</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.003923806730060011</v>
+      </c>
+      <c r="E60">
+        <v>-0.1307449291078594</v>
+      </c>
+      <c r="F60">
+        <v>-0.204311103089654</v>
+      </c>
+      <c r="G60">
+        <v>-0.08279575527078045</v>
+      </c>
+      <c r="H60">
+        <v>0.2361356136503448</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01219339036638783</v>
+        <v>0.013534401947305</v>
       </c>
       <c r="C61">
-        <v>-0.06205127454311703</v>
+        <v>0.08538037848289949</v>
       </c>
       <c r="D61">
-        <v>0.06696729128979605</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.002056607752212311</v>
+      </c>
+      <c r="E61">
+        <v>-0.07928708451437858</v>
+      </c>
+      <c r="F61">
+        <v>0.009202178301072443</v>
+      </c>
+      <c r="G61">
+        <v>0.003936293195012635</v>
+      </c>
+      <c r="H61">
+        <v>0.01279780934876391</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0001161124536950546</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0003998989036842513</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.001483994836438691</v>
+      </c>
+      <c r="E62">
+        <v>-0.0003503383803568112</v>
+      </c>
+      <c r="F62">
+        <v>0.002177776650215484</v>
+      </c>
+      <c r="G62">
+        <v>0.0008034629811599106</v>
+      </c>
+      <c r="H62">
+        <v>-0.0007690944129980856</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.005062456583043376</v>
+        <v>0.01565947330207042</v>
       </c>
       <c r="C63">
-        <v>-0.03966991126073362</v>
+        <v>0.05729465745826604</v>
       </c>
       <c r="D63">
-        <v>0.06137788423044558</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01659938105881586</v>
+      </c>
+      <c r="E63">
+        <v>-0.08492972651318828</v>
+      </c>
+      <c r="F63">
+        <v>0.02842116313238612</v>
+      </c>
+      <c r="G63">
+        <v>0.001641183347425251</v>
+      </c>
+      <c r="H63">
+        <v>0.01271580105021841</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03064930571347765</v>
+        <v>0.01481225915277175</v>
       </c>
       <c r="C64">
-        <v>-0.1090795295233785</v>
+        <v>0.1063014705580649</v>
       </c>
       <c r="D64">
-        <v>0.01122939935574104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0188005928703394</v>
+      </c>
+      <c r="E64">
+        <v>-0.01714914425403692</v>
+      </c>
+      <c r="F64">
+        <v>0.01838131247237994</v>
+      </c>
+      <c r="G64">
+        <v>-0.03057696034528301</v>
+      </c>
+      <c r="H64">
+        <v>0.004894067498043893</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02350174587529146</v>
+        <v>0.02685970547886152</v>
       </c>
       <c r="C65">
-        <v>-0.03115498425021646</v>
+        <v>0.05597534100981279</v>
       </c>
       <c r="D65">
-        <v>0.08661076673262878</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03838530997253864</v>
+      </c>
+      <c r="E65">
+        <v>-0.1161545252251671</v>
+      </c>
+      <c r="F65">
+        <v>0.0106528653094412</v>
+      </c>
+      <c r="G65">
+        <v>-0.06718306215673574</v>
+      </c>
+      <c r="H65">
+        <v>0.04327903819913596</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01284011705868897</v>
+        <v>0.008481881301498524</v>
       </c>
       <c r="C66">
-        <v>-0.08677256609291702</v>
+        <v>0.123450317031167</v>
       </c>
       <c r="D66">
-        <v>0.1155554230000399</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.02568894630353938</v>
+      </c>
+      <c r="E66">
+        <v>-0.1253597571819158</v>
+      </c>
+      <c r="F66">
+        <v>0.021266737022808</v>
+      </c>
+      <c r="G66">
+        <v>0.008877493015957451</v>
+      </c>
+      <c r="H66">
+        <v>0.001504451706838451</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01368215293708762</v>
+        <v>0.01536039971001853</v>
       </c>
       <c r="C67">
-        <v>-0.02377731430009273</v>
+        <v>0.04086392408072745</v>
       </c>
       <c r="D67">
-        <v>0.03970091765377803</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005740208818841358</v>
+      </c>
+      <c r="E67">
+        <v>-0.05364918885761921</v>
+      </c>
+      <c r="F67">
+        <v>-0.01747201878161021</v>
+      </c>
+      <c r="G67">
+        <v>-0.007309789765288793</v>
+      </c>
+      <c r="H67">
+        <v>-0.03433524865733513</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2389628873010197</v>
+        <v>0.2799700978913105</v>
       </c>
       <c r="C68">
-        <v>0.09182011895374609</v>
+        <v>-0.06116409630750123</v>
       </c>
       <c r="D68">
-        <v>0.02514894343457947</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02744360332292467</v>
+      </c>
+      <c r="E68">
+        <v>-0.03555499483049061</v>
+      </c>
+      <c r="F68">
+        <v>0.05249789051704613</v>
+      </c>
+      <c r="G68">
+        <v>0.008310675254386455</v>
+      </c>
+      <c r="H68">
+        <v>-0.03081981298923316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.03084129482585495</v>
+        <v>0.01226702592205642</v>
       </c>
       <c r="C69">
-        <v>-0.1319951818234978</v>
+        <v>0.1136542197982467</v>
       </c>
       <c r="D69">
-        <v>0.06037193370134098</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.003392897448206159</v>
+      </c>
+      <c r="E69">
+        <v>-0.01374577399954009</v>
+      </c>
+      <c r="F69">
+        <v>-0.01715592810535916</v>
+      </c>
+      <c r="G69">
+        <v>0.01149516495813701</v>
+      </c>
+      <c r="H69">
+        <v>-0.01184027628192623</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2550844973465335</v>
+        <v>0.2697834868642075</v>
       </c>
       <c r="C71">
-        <v>0.1084740256279489</v>
+        <v>-0.0765473057869754</v>
       </c>
       <c r="D71">
-        <v>0.01687219101844176</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01188476415766972</v>
+      </c>
+      <c r="E71">
+        <v>-0.009297700956187342</v>
+      </c>
+      <c r="F71">
+        <v>0.02574799689657402</v>
+      </c>
+      <c r="G71">
+        <v>0.01655383939000287</v>
+      </c>
+      <c r="H71">
+        <v>-0.05273769723897324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0812564086175093</v>
+        <v>0.06346653468254643</v>
       </c>
       <c r="C72">
-        <v>-0.1058661699089873</v>
+        <v>0.1317873474107059</v>
       </c>
       <c r="D72">
-        <v>0.08386161277223959</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01186860884304373</v>
+      </c>
+      <c r="E72">
+        <v>-0.07563059244427917</v>
+      </c>
+      <c r="F72">
+        <v>-0.03261881153946194</v>
+      </c>
+      <c r="G72">
+        <v>-0.0303472860032819</v>
+      </c>
+      <c r="H72">
+        <v>0.03628708728778348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1528033104157644</v>
+        <v>0.1565860449814436</v>
       </c>
       <c r="C73">
-        <v>-0.1062247961797921</v>
+        <v>0.1675053320512147</v>
       </c>
       <c r="D73">
-        <v>0.1819404227835152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.06951279153192925</v>
+      </c>
+      <c r="E73">
+        <v>-0.2613381415974826</v>
+      </c>
+      <c r="F73">
+        <v>-0.3621232334441332</v>
+      </c>
+      <c r="G73">
+        <v>-0.1765314783520514</v>
+      </c>
+      <c r="H73">
+        <v>0.330061368856091</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07383198376033762</v>
+        <v>0.0486465589586495</v>
       </c>
       <c r="C74">
-        <v>-0.1406709431121295</v>
+        <v>0.1394600773741122</v>
       </c>
       <c r="D74">
-        <v>-0.05512401588181529</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04051648095373547</v>
+      </c>
+      <c r="E74">
+        <v>0.07301939605306998</v>
+      </c>
+      <c r="F74">
+        <v>-0.00249424998814106</v>
+      </c>
+      <c r="G74">
+        <v>0.01325586680970023</v>
+      </c>
+      <c r="H74">
+        <v>-0.02844691630968089</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1652390458618005</v>
+        <v>0.09505330137080423</v>
       </c>
       <c r="C75">
-        <v>-0.2499472720331705</v>
+        <v>0.2504524404949862</v>
       </c>
       <c r="D75">
-        <v>-0.02881312810108779</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.04758442248853204</v>
+      </c>
+      <c r="E75">
+        <v>0.1700464786234838</v>
+      </c>
+      <c r="F75">
+        <v>-0.1291903290344405</v>
+      </c>
+      <c r="G75">
+        <v>0.08819242355742989</v>
+      </c>
+      <c r="H75">
+        <v>-0.1997926949947031</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.09697061893805463</v>
+        <v>0.05750882667380701</v>
       </c>
       <c r="C76">
-        <v>-0.1767842888967236</v>
+        <v>0.1798793684540795</v>
       </c>
       <c r="D76">
-        <v>0.007606776333085387</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.03750836728356396</v>
+      </c>
+      <c r="E76">
+        <v>0.07233557716820177</v>
+      </c>
+      <c r="F76">
+        <v>-0.06551901777783729</v>
+      </c>
+      <c r="G76">
+        <v>0.06884840434056803</v>
+      </c>
+      <c r="H76">
+        <v>-0.05381741949507491</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.002687244772284993</v>
+        <v>0.003958065812363075</v>
       </c>
       <c r="C77">
-        <v>-0.1169830485926874</v>
+        <v>0.1549517144006706</v>
       </c>
       <c r="D77">
-        <v>0.2033766152309334</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.8987846918542377</v>
+      </c>
+      <c r="E77">
+        <v>0.2810197203211098</v>
+      </c>
+      <c r="F77">
+        <v>-0.1067902019938346</v>
+      </c>
+      <c r="G77">
+        <v>-0.1478512975737759</v>
+      </c>
+      <c r="H77">
+        <v>0.08838319210821248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02788476678643003</v>
+        <v>0.02600561068975615</v>
       </c>
       <c r="C78">
-        <v>-0.1004369602265784</v>
+        <v>0.1114534634869342</v>
       </c>
       <c r="D78">
-        <v>0.1280398163974577</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.00448748556902686</v>
+      </c>
+      <c r="E78">
+        <v>-0.09895972245359236</v>
+      </c>
+      <c r="F78">
+        <v>0.06324078328816932</v>
+      </c>
+      <c r="G78">
+        <v>0.07817442369453931</v>
+      </c>
+      <c r="H78">
+        <v>-0.02698062431143423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.07854476464919787</v>
+        <v>0.05285661254471168</v>
       </c>
       <c r="C79">
-        <v>-0.2911793722100552</v>
+        <v>0.2456270240746967</v>
       </c>
       <c r="D79">
-        <v>-0.7031820494766685</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.2062181803125998</v>
+      </c>
+      <c r="E79">
+        <v>0.3784997723178891</v>
+      </c>
+      <c r="F79">
+        <v>0.5640276071769467</v>
+      </c>
+      <c r="G79">
+        <v>-0.490377946028747</v>
+      </c>
+      <c r="H79">
+        <v>0.3465956333117052</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.001519685727617361</v>
+        <v>0.008020153664310989</v>
       </c>
       <c r="C80">
-        <v>-0.05100410940586859</v>
+        <v>0.0503729678287581</v>
       </c>
       <c r="D80">
-        <v>0.02601046149592406</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02857813964347256</v>
+      </c>
+      <c r="E80">
+        <v>-0.05257813126483128</v>
+      </c>
+      <c r="F80">
+        <v>-0.01236391447880862</v>
+      </c>
+      <c r="G80">
+        <v>0.05037898549913308</v>
+      </c>
+      <c r="H80">
+        <v>0.05003296586498947</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.06764017731400984</v>
+        <v>0.02895410904487088</v>
       </c>
       <c r="C81">
-        <v>-0.1621197693852832</v>
+        <v>0.1570359707722452</v>
       </c>
       <c r="D81">
-        <v>-0.0680752767164312</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.04613995602732991</v>
+      </c>
+      <c r="E81">
+        <v>0.1066445528121807</v>
+      </c>
+      <c r="F81">
+        <v>0.01094857290513665</v>
+      </c>
+      <c r="G81">
+        <v>0.07435101013463122</v>
+      </c>
+      <c r="H81">
+        <v>-0.05753494000692916</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1293207302953223</v>
+        <v>0.07014098316641353</v>
       </c>
       <c r="C82">
-        <v>-0.2712692802652499</v>
+        <v>0.2354804756210254</v>
       </c>
       <c r="D82">
-        <v>-0.02876416806161871</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.06287496346576735</v>
+      </c>
+      <c r="E82">
+        <v>0.1625168606865094</v>
+      </c>
+      <c r="F82">
+        <v>-0.08647961827240423</v>
+      </c>
+      <c r="G82">
+        <v>0.1528785240038361</v>
+      </c>
+      <c r="H82">
+        <v>-0.1007175481707794</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01652172642950998</v>
+        <v>-0.00632095885081472</v>
       </c>
       <c r="C83">
-        <v>-0.0479280574510193</v>
+        <v>0.01674396886297324</v>
       </c>
       <c r="D83">
-        <v>-0.003905012569392679</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.07479992563890764</v>
+      </c>
+      <c r="E83">
+        <v>0.09684748755923356</v>
+      </c>
+      <c r="F83">
+        <v>0.2191415350019427</v>
+      </c>
+      <c r="G83">
+        <v>0.718169059688905</v>
+      </c>
+      <c r="H83">
+        <v>0.5465866160994477</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001410208078169049</v>
+        <v>-0.002950407692350198</v>
       </c>
       <c r="C84">
-        <v>-0.004335409991776959</v>
+        <v>0.02408720734097014</v>
       </c>
       <c r="D84">
-        <v>0.01013891804992915</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01494867013123159</v>
+      </c>
+      <c r="E84">
+        <v>-0.04416993354427539</v>
+      </c>
+      <c r="F84">
+        <v>0.05936454619863598</v>
+      </c>
+      <c r="G84">
+        <v>-0.006131258997543121</v>
+      </c>
+      <c r="H84">
+        <v>-0.06082902983293181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.0926890088610702</v>
+        <v>0.05327440332874924</v>
       </c>
       <c r="C85">
-        <v>-0.1777632866594436</v>
+        <v>0.173011791697688</v>
       </c>
       <c r="D85">
-        <v>-0.09461871516028175</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1069445834610487</v>
+      </c>
+      <c r="E85">
+        <v>0.1126656509031501</v>
+      </c>
+      <c r="F85">
+        <v>-0.004196578843911257</v>
+      </c>
+      <c r="G85">
+        <v>0.02405047204288375</v>
+      </c>
+      <c r="H85">
+        <v>-0.04764804332400772</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0258595402552866</v>
+        <v>0.01614730169607933</v>
       </c>
       <c r="C86">
-        <v>-0.02460056212817452</v>
+        <v>0.0554885336489683</v>
       </c>
       <c r="D86">
-        <v>0.07210611971489472</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05556087720509503</v>
+      </c>
+      <c r="E86">
+        <v>-0.04984502787740265</v>
+      </c>
+      <c r="F86">
+        <v>0.07733213126269313</v>
+      </c>
+      <c r="G86">
+        <v>-0.0036315314699365</v>
+      </c>
+      <c r="H86">
+        <v>-0.06410458083067243</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0192043019445962</v>
+        <v>0.01226732276102198</v>
       </c>
       <c r="C87">
-        <v>-0.05721849696553332</v>
+        <v>0.08033710165671737</v>
       </c>
       <c r="D87">
-        <v>0.1076848076490001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.05106208484188788</v>
+      </c>
+      <c r="E87">
+        <v>-0.1019266486785122</v>
+      </c>
+      <c r="F87">
+        <v>0.09365517323995512</v>
+      </c>
+      <c r="G87">
+        <v>0.02489833710979371</v>
+      </c>
+      <c r="H87">
+        <v>-0.04468274996459783</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.03444531940201213</v>
+        <v>0.03360090113795051</v>
       </c>
       <c r="C88">
-        <v>-0.06872013496580298</v>
+        <v>0.07747576037639453</v>
       </c>
       <c r="D88">
-        <v>-0.002187594693279088</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01886841517898672</v>
+      </c>
+      <c r="E88">
+        <v>-0.019003219901342</v>
+      </c>
+      <c r="F88">
+        <v>-0.0008510434763328421</v>
+      </c>
+      <c r="G88">
+        <v>-0.006231246015439867</v>
+      </c>
+      <c r="H88">
+        <v>-0.003628172583327487</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.4003350158939002</v>
+        <v>0.4022000551755761</v>
       </c>
       <c r="C89">
-        <v>0.2137166736970636</v>
+        <v>-0.1520492882577786</v>
       </c>
       <c r="D89">
-        <v>4.534587271249218e-05</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.04402315031022958</v>
+      </c>
+      <c r="E89">
+        <v>-0.0143538412799772</v>
+      </c>
+      <c r="F89">
+        <v>0.1129279901758582</v>
+      </c>
+      <c r="G89">
+        <v>0.08221793929798295</v>
+      </c>
+      <c r="H89">
+        <v>0.06211596067224143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.3130117586780541</v>
+        <v>0.3228408106140725</v>
       </c>
       <c r="C90">
-        <v>0.1499688581538803</v>
+        <v>-0.09457734577242904</v>
       </c>
       <c r="D90">
-        <v>0.06491162806140725</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03278892504114543</v>
+      </c>
+      <c r="E90">
+        <v>-0.03665603393851369</v>
+      </c>
+      <c r="F90">
+        <v>0.003402510017832913</v>
+      </c>
+      <c r="G90">
+        <v>0.02692191371358735</v>
+      </c>
+      <c r="H90">
+        <v>-0.03133372695813624</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09940400500849257</v>
+        <v>0.06293709360504227</v>
       </c>
       <c r="C91">
-        <v>-0.2211319704527326</v>
+        <v>0.1929770759457723</v>
       </c>
       <c r="D91">
-        <v>-0.1007622990813803</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.04709418118103232</v>
+      </c>
+      <c r="E91">
+        <v>0.1599337471879834</v>
+      </c>
+      <c r="F91">
+        <v>0.00386880516382817</v>
+      </c>
+      <c r="G91">
+        <v>0.04574050575510372</v>
+      </c>
+      <c r="H91">
+        <v>-0.02563753668289741</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.3133916732988697</v>
+        <v>0.3425341470834158</v>
       </c>
       <c r="C92">
-        <v>0.1850318015970643</v>
+        <v>-0.1393960467182087</v>
       </c>
       <c r="D92">
-        <v>-0.05074752464548771</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.05733857507839755</v>
+      </c>
+      <c r="E92">
+        <v>0.04312780616517693</v>
+      </c>
+      <c r="F92">
+        <v>0.07606774767756037</v>
+      </c>
+      <c r="G92">
+        <v>-0.05155669701369701</v>
+      </c>
+      <c r="H92">
+        <v>-0.09428357031614139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.3306438394218494</v>
+        <v>0.3297648616687223</v>
       </c>
       <c r="C93">
-        <v>0.1621700179474867</v>
+        <v>-0.1153402161720889</v>
       </c>
       <c r="D93">
-        <v>-0.03277691886680839</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02438167565274673</v>
+      </c>
+      <c r="E93">
+        <v>0.01693708665150434</v>
+      </c>
+      <c r="F93">
+        <v>0.0006362797794165363</v>
+      </c>
+      <c r="G93">
+        <v>-0.03938326642166644</v>
+      </c>
+      <c r="H93">
+        <v>-0.02766169199113721</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1798613904522509</v>
+        <v>0.1168828696659137</v>
       </c>
       <c r="C94">
-        <v>-0.2732730433514184</v>
+        <v>0.2619704788187402</v>
       </c>
       <c r="D94">
-        <v>-0.09369481826232968</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.1366300833319649</v>
+      </c>
+      <c r="E94">
+        <v>0.2684889746355797</v>
+      </c>
+      <c r="F94">
+        <v>-0.1749267668027146</v>
+      </c>
+      <c r="G94">
+        <v>0.1841908130887041</v>
+      </c>
+      <c r="H94">
+        <v>-0.2311229958778945</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.005066609584396052</v>
+        <v>0.01379048960587631</v>
       </c>
       <c r="C95">
-        <v>-0.06571479529922489</v>
+        <v>0.09573280139705455</v>
       </c>
       <c r="D95">
-        <v>0.09037884745467213</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.130793533848158</v>
+      </c>
+      <c r="E95">
+        <v>-0.03370661554706353</v>
+      </c>
+      <c r="F95">
+        <v>-0.04879584222464695</v>
+      </c>
+      <c r="G95">
+        <v>-0.0153955025807583</v>
+      </c>
+      <c r="H95">
+        <v>0.04067733218482791</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002057327352745747</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001369598444046729</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.002987410260706086</v>
+      </c>
+      <c r="E97">
+        <v>-0.003568894918569979</v>
+      </c>
+      <c r="F97">
+        <v>-0.0006468019028871404</v>
+      </c>
+      <c r="G97">
+        <v>-0.002356860462348895</v>
+      </c>
+      <c r="H97">
+        <v>-0.00550257264218409</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1209399707171359</v>
+        <v>0.1315134771529577</v>
       </c>
       <c r="C98">
-        <v>-0.1099357306189107</v>
+        <v>0.1553268830839684</v>
       </c>
       <c r="D98">
-        <v>0.1366325001649688</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0523342045546139</v>
+      </c>
+      <c r="E98">
+        <v>-0.1799396004430701</v>
+      </c>
+      <c r="F98">
+        <v>-0.284355309098396</v>
+      </c>
+      <c r="G98">
+        <v>-0.1382764497979938</v>
+      </c>
+      <c r="H98">
+        <v>0.2535786882587467</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.000321580259361246</v>
+        <v>0.002821878590676214</v>
       </c>
       <c r="C101">
-        <v>-0.02681503515988583</v>
+        <v>0.05009823795738003</v>
       </c>
       <c r="D101">
-        <v>0.05902857178967159</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0003723817755335012</v>
+      </c>
+      <c r="E101">
+        <v>-0.1175301530914195</v>
+      </c>
+      <c r="F101">
+        <v>0.06321393295861144</v>
+      </c>
+      <c r="G101">
+        <v>0.02031156745763039</v>
+      </c>
+      <c r="H101">
+        <v>0.05752769604996869</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.05109520651665458</v>
+        <v>0.01670237333910029</v>
       </c>
       <c r="C102">
-        <v>-0.1539228752060901</v>
+        <v>0.1105690400284052</v>
       </c>
       <c r="D102">
-        <v>0.01211793417944411</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0223377274460745</v>
+      </c>
+      <c r="E102">
+        <v>0.08161327497110792</v>
+      </c>
+      <c r="F102">
+        <v>-0.06469309568828989</v>
+      </c>
+      <c r="G102">
+        <v>0.0681487195891026</v>
+      </c>
+      <c r="H102">
+        <v>-0.03596950436660806</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
